--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>incvar I</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Stkprob</t>
   </si>
   <si>
+    <t>UEprobAgg</t>
+  </si>
+  <si>
     <t>UEprobInd</t>
   </si>
   <si>
@@ -70,166 +73,172 @@
     <t>R2</t>
   </si>
   <si>
+    <t>0.25*</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>7.58***</t>
+  </si>
+  <si>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>4.62***</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
     <t>0.05</t>
   </si>
   <si>
+    <t>51788</t>
+  </si>
+  <si>
+    <t>0.35***</t>
+  </si>
+  <si>
+    <t>-0.00</t>
+  </si>
+  <si>
+    <t>(0.00)</t>
+  </si>
+  <si>
+    <t>3.76***</t>
+  </si>
+  <si>
     <t>(0.12)</t>
   </si>
   <si>
-    <t>7.21***</t>
-  </si>
-  <si>
-    <t>(0.15)</t>
-  </si>
-  <si>
-    <t>4.64***</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t>54029</t>
-  </si>
-  <si>
-    <t>0.24*</t>
-  </si>
-  <si>
-    <t>(0.13)</t>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.01***</t>
+  </si>
+  <si>
+    <t>0.00**</t>
+  </si>
+  <si>
+    <t>0.03***</t>
+  </si>
+  <si>
+    <t>45903</t>
+  </si>
+  <si>
+    <t>1.52***</t>
+  </si>
+  <si>
+    <t>(0.10)</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>(0.14)</t>
+  </si>
+  <si>
+    <t>-0.00**</t>
+  </si>
+  <si>
+    <t>3.30***</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.44***</t>
+  </si>
+  <si>
+    <t>-0.82***</t>
+  </si>
+  <si>
+    <t>5.71***</t>
+  </si>
+  <si>
+    <t>(0.08)</t>
+  </si>
+  <si>
+    <t>45430</t>
+  </si>
+  <si>
+    <t>1.90***</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
+  </si>
+  <si>
+    <t>6.72***</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
+  </si>
+  <si>
+    <t>12.42***</t>
+  </si>
+  <si>
+    <t>48665</t>
+  </si>
+  <si>
+    <t>2.23***</t>
+  </si>
+  <si>
+    <t>(0.27)</t>
   </si>
   <si>
     <t>-0.00***</t>
   </si>
   <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t>3.91***</t>
-  </si>
-  <si>
-    <t>(0.10)</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.01***</t>
-  </si>
-  <si>
-    <t>0.03***</t>
-  </si>
-  <si>
-    <t>47356</t>
-  </si>
-  <si>
-    <t>1.57***</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>3.39***</t>
-  </si>
-  <si>
-    <t>(0.11)</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.40***</t>
-  </si>
-  <si>
-    <t>-0.80***</t>
-  </si>
-  <si>
-    <t>5.72***</t>
-  </si>
-  <si>
-    <t>(0.07)</t>
-  </si>
-  <si>
-    <t>47457</t>
-  </si>
-  <si>
-    <t>1.41***</t>
-  </si>
-  <si>
-    <t>(0.23)</t>
-  </si>
-  <si>
-    <t>6.27***</t>
-  </si>
-  <si>
-    <t>(0.27)</t>
-  </si>
-  <si>
-    <t>12.42***</t>
-  </si>
-  <si>
-    <t>50730</t>
-  </si>
-  <si>
-    <t>1.80***</t>
-  </si>
-  <si>
-    <t>(0.26)</t>
-  </si>
-  <si>
-    <t>0.00***</t>
-  </si>
-  <si>
-    <t>13.64***</t>
-  </si>
-  <si>
-    <t>(0.21)</t>
+    <t>12.26***</t>
+  </si>
+  <si>
+    <t>-0.06***</t>
+  </si>
+  <si>
+    <t>0.05***</t>
+  </si>
+  <si>
+    <t>43077</t>
+  </si>
+  <si>
+    <t>6.97***</t>
+  </si>
+  <si>
+    <t>(0.20)</t>
+  </si>
+  <si>
+    <t>0.56**</t>
+  </si>
+  <si>
+    <t>10.22***</t>
+  </si>
+  <si>
+    <t>0.04</t>
   </si>
   <si>
     <t>-0.05***</t>
   </si>
   <si>
-    <t>0.06***</t>
-  </si>
-  <si>
-    <t>44404</t>
-  </si>
-  <si>
-    <t>7.09***</t>
+    <t>0.04***</t>
+  </si>
+  <si>
+    <t>4.01***</t>
+  </si>
+  <si>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>2.67***</t>
   </si>
   <si>
     <t>(0.19)</t>
   </si>
   <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>11.36***</t>
-  </si>
-  <si>
-    <t>(0.22)</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.04***</t>
-  </si>
-  <si>
-    <t>0.05***</t>
-  </si>
-  <si>
-    <t>3.82***</t>
-  </si>
-  <si>
-    <t>2.76***</t>
-  </si>
-  <si>
-    <t>11.16***</t>
-  </si>
-  <si>
-    <t>(0.14)</t>
-  </si>
-  <si>
-    <t>44517</t>
+    <t>11.21***</t>
+  </si>
+  <si>
+    <t>42654</t>
   </si>
 </sst>
 </file>
@@ -587,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,19 +633,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -644,19 +653,19 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -664,19 +673,19 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -684,43 +693,43 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -728,43 +737,43 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -772,82 +781,82 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -855,31 +864,31 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -887,89 +896,121 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="1"/>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" t="s">
-        <v>39</v>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
   <si>
     <t>incvar I</t>
   </si>
@@ -67,6 +67,9 @@
     <t>UEprobInd</t>
   </si>
   <si>
+    <t>rmse</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -97,145 +100,196 @@
     <t>51788</t>
   </si>
   <si>
-    <t>0.35***</t>
-  </si>
-  <si>
-    <t>-0.00</t>
+    <t>0.30*</t>
+  </si>
+  <si>
+    <t>(0.16)</t>
+  </si>
+  <si>
+    <t>0.00***</t>
   </si>
   <si>
     <t>(0.00)</t>
   </si>
   <si>
-    <t>3.76***</t>
+    <t>-16.31***</t>
+  </si>
+  <si>
+    <t>(2.34)</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.01***</t>
+  </si>
+  <si>
+    <t>0.00*</t>
+  </si>
+  <si>
+    <t>0.02***</t>
+  </si>
+  <si>
+    <t>31.23***</t>
+  </si>
+  <si>
+    <t>(3.63)</t>
+  </si>
+  <si>
+    <t>34391</t>
+  </si>
+  <si>
+    <t>1.45***</t>
+  </si>
+  <si>
+    <t>(0.11)</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.00***</t>
+  </si>
+  <si>
+    <t>-17.19***</t>
+  </si>
+  <si>
+    <t>(2.33)</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>31.92***</t>
+  </si>
+  <si>
+    <t>(3.62)</t>
+  </si>
+  <si>
+    <t>0.44***</t>
   </si>
   <si>
     <t>(0.12)</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.01***</t>
-  </si>
-  <si>
-    <t>0.00**</t>
+    <t>-0.82***</t>
+  </si>
+  <si>
+    <t>(0.10)</t>
+  </si>
+  <si>
+    <t>5.71***</t>
+  </si>
+  <si>
+    <t>(0.08)</t>
+  </si>
+  <si>
+    <t>45430</t>
+  </si>
+  <si>
+    <t>1.90***</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
+  </si>
+  <si>
+    <t>6.72***</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
+  </si>
+  <si>
+    <t>12.42***</t>
+  </si>
+  <si>
+    <t>48665</t>
+  </si>
+  <si>
+    <t>1.99***</t>
+  </si>
+  <si>
+    <t>(0.31)</t>
+  </si>
+  <si>
+    <t>-11.33**</t>
+  </si>
+  <si>
+    <t>(4.73)</t>
+  </si>
+  <si>
+    <t>-0.06***</t>
+  </si>
+  <si>
+    <t>0.06***</t>
+  </si>
+  <si>
+    <t>0.04***</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>36.59***</t>
+  </si>
+  <si>
+    <t>(7.33)</t>
+  </si>
+  <si>
+    <t>32323</t>
+  </si>
+  <si>
+    <t>6.66***</t>
+  </si>
+  <si>
+    <t>(0.23)</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>(0.32)</t>
+  </si>
+  <si>
+    <t>-15.35***</t>
+  </si>
+  <si>
+    <t>(4.67)</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.05***</t>
+  </si>
+  <si>
+    <t>0.05***</t>
   </si>
   <si>
     <t>0.03***</t>
   </si>
   <si>
-    <t>45903</t>
-  </si>
-  <si>
-    <t>1.52***</t>
-  </si>
-  <si>
-    <t>(0.10)</t>
-  </si>
-  <si>
-    <t>-0.02</t>
+    <t>39.80***</t>
+  </si>
+  <si>
+    <t>(7.24)</t>
+  </si>
+  <si>
+    <t>4.01***</t>
+  </si>
+  <si>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>2.67***</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
+  </si>
+  <si>
+    <t>11.21***</t>
   </si>
   <si>
     <t>(0.14)</t>
-  </si>
-  <si>
-    <t>-0.00**</t>
-  </si>
-  <si>
-    <t>3.30***</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.44***</t>
-  </si>
-  <si>
-    <t>-0.82***</t>
-  </si>
-  <si>
-    <t>5.71***</t>
-  </si>
-  <si>
-    <t>(0.08)</t>
-  </si>
-  <si>
-    <t>45430</t>
-  </si>
-  <si>
-    <t>1.90***</t>
-  </si>
-  <si>
-    <t>(0.25)</t>
-  </si>
-  <si>
-    <t>6.72***</t>
-  </si>
-  <si>
-    <t>(0.29)</t>
-  </si>
-  <si>
-    <t>12.42***</t>
-  </si>
-  <si>
-    <t>48665</t>
-  </si>
-  <si>
-    <t>2.23***</t>
-  </si>
-  <si>
-    <t>(0.27)</t>
-  </si>
-  <si>
-    <t>-0.00***</t>
-  </si>
-  <si>
-    <t>12.26***</t>
-  </si>
-  <si>
-    <t>-0.06***</t>
-  </si>
-  <si>
-    <t>0.05***</t>
-  </si>
-  <si>
-    <t>43077</t>
-  </si>
-  <si>
-    <t>6.97***</t>
-  </si>
-  <si>
-    <t>(0.20)</t>
-  </si>
-  <si>
-    <t>0.56**</t>
-  </si>
-  <si>
-    <t>10.22***</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.05***</t>
-  </si>
-  <si>
-    <t>0.04***</t>
-  </si>
-  <si>
-    <t>4.01***</t>
-  </si>
-  <si>
-    <t>(0.22)</t>
-  </si>
-  <si>
-    <t>2.67***</t>
-  </si>
-  <si>
-    <t>(0.19)</t>
-  </si>
-  <si>
-    <t>11.21***</t>
   </si>
   <si>
     <t>42654</t>
@@ -596,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,19 +687,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -653,19 +707,19 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -673,19 +727,19 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -693,43 +747,43 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -737,43 +791,43 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -781,82 +835,82 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -864,31 +918,31 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -896,31 +950,31 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,89 +982,121 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" t="s">
-        <v>43</v>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>incvar I</t>
   </si>
@@ -73,223 +73,145 @@
     <t>N</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>0.25*</t>
-  </si>
-  <si>
-    <t>(0.13)</t>
-  </si>
-  <si>
-    <t>7.58***</t>
-  </si>
-  <si>
-    <t>(0.15)</t>
-  </si>
-  <si>
-    <t>4.62***</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t>0.05</t>
+    <t>-0.08***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>1.15***</t>
+  </si>
+  <si>
+    <t>0.30***</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>0.06</t>
   </si>
   <si>
     <t>51788</t>
   </si>
   <si>
-    <t>0.30*</t>
-  </si>
-  <si>
-    <t>(0.16)</t>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.00***</t>
+  </si>
+  <si>
+    <t>(0.00)</t>
+  </si>
+  <si>
+    <t>2.84***</t>
+  </si>
+  <si>
+    <t>(0.12)</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.01***</t>
   </si>
   <si>
     <t>0.00***</t>
   </si>
   <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t>-16.31***</t>
-  </si>
-  <si>
-    <t>(2.34)</t>
+    <t>6.30***</t>
+  </si>
+  <si>
+    <t>(0.27)</t>
+  </si>
+  <si>
+    <t>34589</t>
+  </si>
+  <si>
+    <t>0.13***</t>
+  </si>
+  <si>
+    <t>-0.06**</t>
+  </si>
+  <si>
+    <t>2.81***</t>
+  </si>
+  <si>
+    <t>6.32***</t>
+  </si>
+  <si>
+    <t>-0.10***</t>
+  </si>
+  <si>
+    <t>-0.32***</t>
+  </si>
+  <si>
+    <t>0.58***</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>0.01***</t>
-  </si>
-  <si>
-    <t>0.00*</t>
-  </si>
-  <si>
-    <t>0.02***</t>
-  </si>
-  <si>
-    <t>31.23***</t>
-  </si>
-  <si>
-    <t>(3.63)</t>
-  </si>
-  <si>
-    <t>34391</t>
-  </si>
-  <si>
-    <t>1.45***</t>
-  </si>
-  <si>
-    <t>(0.11)</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>-0.00***</t>
-  </si>
-  <si>
-    <t>-17.19***</t>
-  </si>
-  <si>
-    <t>(2.33)</t>
+    <t>45430</t>
+  </si>
+  <si>
+    <t>0.06***</t>
+  </si>
+  <si>
+    <t>0.60***</t>
+  </si>
+  <si>
+    <t>1.61***</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>48665</t>
+  </si>
+  <si>
+    <t>0.10***</t>
+  </si>
+  <si>
+    <t>3.36***</t>
+  </si>
+  <si>
+    <t>4.30***</t>
+  </si>
+  <si>
+    <t>(0.26)</t>
+  </si>
+  <si>
+    <t>32518</t>
+  </si>
+  <si>
+    <t>0.43***</t>
+  </si>
+  <si>
+    <t>-0.00</t>
+  </si>
+  <si>
+    <t>3.24***</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.00**</t>
+  </si>
+  <si>
+    <t>4.32***</t>
+  </si>
+  <si>
+    <t>0.12***</t>
+  </si>
+  <si>
+    <t>0.07***</t>
+  </si>
+  <si>
+    <t>1.63***</t>
   </si>
   <si>
     <t>0.00</t>
-  </si>
-  <si>
-    <t>31.92***</t>
-  </si>
-  <si>
-    <t>(3.62)</t>
-  </si>
-  <si>
-    <t>0.44***</t>
-  </si>
-  <si>
-    <t>(0.12)</t>
-  </si>
-  <si>
-    <t>-0.82***</t>
-  </si>
-  <si>
-    <t>(0.10)</t>
-  </si>
-  <si>
-    <t>5.71***</t>
-  </si>
-  <si>
-    <t>(0.08)</t>
-  </si>
-  <si>
-    <t>45430</t>
-  </si>
-  <si>
-    <t>1.90***</t>
-  </si>
-  <si>
-    <t>(0.25)</t>
-  </si>
-  <si>
-    <t>6.72***</t>
-  </si>
-  <si>
-    <t>(0.29)</t>
-  </si>
-  <si>
-    <t>12.42***</t>
-  </si>
-  <si>
-    <t>48665</t>
-  </si>
-  <si>
-    <t>1.99***</t>
-  </si>
-  <si>
-    <t>(0.31)</t>
-  </si>
-  <si>
-    <t>-11.33**</t>
-  </si>
-  <si>
-    <t>(4.73)</t>
-  </si>
-  <si>
-    <t>-0.06***</t>
-  </si>
-  <si>
-    <t>0.06***</t>
-  </si>
-  <si>
-    <t>0.04***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>36.59***</t>
-  </si>
-  <si>
-    <t>(7.33)</t>
-  </si>
-  <si>
-    <t>32323</t>
-  </si>
-  <si>
-    <t>6.66***</t>
-  </si>
-  <si>
-    <t>(0.23)</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>(0.32)</t>
-  </si>
-  <si>
-    <t>-15.35***</t>
-  </si>
-  <si>
-    <t>(4.67)</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.05***</t>
-  </si>
-  <si>
-    <t>0.05***</t>
-  </si>
-  <si>
-    <t>0.03***</t>
-  </si>
-  <si>
-    <t>39.80***</t>
-  </si>
-  <si>
-    <t>(7.24)</t>
-  </si>
-  <si>
-    <t>4.01***</t>
-  </si>
-  <si>
-    <t>(0.22)</t>
-  </si>
-  <si>
-    <t>2.67***</t>
-  </si>
-  <si>
-    <t>(0.19)</t>
-  </si>
-  <si>
-    <t>11.21***</t>
-  </si>
-  <si>
-    <t>(0.14)</t>
   </si>
   <si>
     <t>42654</t>
@@ -650,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,19 +609,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -707,19 +629,19 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -727,19 +649,19 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -747,43 +669,43 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
         <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -791,43 +713,43 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -835,82 +757,82 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -918,31 +840,31 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -950,31 +872,31 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -982,31 +904,31 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1014,31 +936,31 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1046,57 +968,28 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>incvar I</t>
   </si>
@@ -40,6 +40,18 @@
     <t>rincvar IIII</t>
   </si>
   <si>
+    <t>parttime=yes</t>
+  </si>
+  <si>
+    <t>selfemp=yes</t>
+  </si>
+  <si>
+    <t>UEprobAgg</t>
+  </si>
+  <si>
+    <t>UEprobInd</t>
+  </si>
+  <si>
     <t>HHinc_gr=low inc</t>
   </si>
   <si>
@@ -49,30 +61,12 @@
     <t>gender=male</t>
   </si>
   <si>
-    <t>parttime=yes</t>
-  </si>
-  <si>
-    <t>selfemp=yes</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>Stkprob</t>
-  </si>
-  <si>
-    <t>UEprobAgg</t>
-  </si>
-  <si>
-    <t>UEprobInd</t>
-  </si>
-  <si>
-    <t>rmse</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
+    <t>R2</t>
+  </si>
+  <si>
     <t>-0.08***</t>
   </si>
   <si>
@@ -82,139 +76,103 @@
     <t>1.15***</t>
   </si>
   <si>
-    <t>0.30***</t>
+    <t>51788</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>-0.07***</t>
+  </si>
+  <si>
+    <t>-0.00***</t>
+  </si>
+  <si>
+    <t>(0.00)</t>
+  </si>
+  <si>
+    <t>0.00***</t>
+  </si>
+  <si>
+    <t>45911</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>-0.10***</t>
+  </si>
+  <si>
+    <t>0.15***</t>
   </si>
   <si>
     <t>(0.01)</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>51788</t>
+    <t>-0.16***</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.05**</t>
+  </si>
+  <si>
+    <t>0.18***</t>
+  </si>
+  <si>
+    <t>-0.14***</t>
+  </si>
+  <si>
+    <t>-0.29***</t>
+  </si>
+  <si>
+    <t>39008</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.06***</t>
+  </si>
+  <si>
+    <t>0.60***</t>
+  </si>
+  <si>
+    <t>48665</t>
+  </si>
+  <si>
+    <t>0.08***</t>
+  </si>
+  <si>
+    <t>-0.00</t>
+  </si>
+  <si>
+    <t>0.01***</t>
+  </si>
+  <si>
+    <t>43083</t>
   </si>
   <si>
     <t>-0.03</t>
   </si>
   <si>
-    <t>-0.00***</t>
-  </si>
-  <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t>2.84***</t>
-  </si>
-  <si>
-    <t>(0.12)</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.01***</t>
-  </si>
-  <si>
-    <t>0.00***</t>
-  </si>
-  <si>
-    <t>6.30***</t>
-  </si>
-  <si>
-    <t>(0.27)</t>
-  </si>
-  <si>
-    <t>34589</t>
-  </si>
-  <si>
-    <t>0.13***</t>
-  </si>
-  <si>
-    <t>-0.06**</t>
-  </si>
-  <si>
-    <t>2.81***</t>
-  </si>
-  <si>
-    <t>6.32***</t>
-  </si>
-  <si>
-    <t>-0.10***</t>
-  </si>
-  <si>
-    <t>-0.32***</t>
-  </si>
-  <si>
-    <t>0.58***</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>45430</t>
-  </si>
-  <si>
-    <t>0.06***</t>
-  </si>
-  <si>
-    <t>0.60***</t>
-  </si>
-  <si>
-    <t>1.61***</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>48665</t>
-  </si>
-  <si>
-    <t>0.10***</t>
-  </si>
-  <si>
-    <t>3.36***</t>
-  </si>
-  <si>
-    <t>4.30***</t>
-  </si>
-  <si>
-    <t>(0.26)</t>
-  </si>
-  <si>
-    <t>32518</t>
-  </si>
-  <si>
-    <t>0.43***</t>
-  </si>
-  <si>
-    <t>-0.00</t>
-  </si>
-  <si>
-    <t>3.24***</t>
+    <t>0.44***</t>
+  </si>
+  <si>
+    <t>0.05***</t>
   </si>
   <si>
     <t>0.04</t>
   </si>
   <si>
-    <t>-0.00**</t>
-  </si>
-  <si>
-    <t>4.32***</t>
-  </si>
-  <si>
-    <t>0.12***</t>
+    <t>-0.02</t>
   </si>
   <si>
     <t>0.07***</t>
   </si>
   <si>
-    <t>1.63***</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>42654</t>
+    <t>36549</t>
   </si>
 </sst>
 </file>
@@ -572,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,388 +566,342 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
+      <c r="I10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
         <v>48</v>
       </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
-      </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I15" t="s">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1"/>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1"/>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1"/>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" t="s">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>incvar I</t>
   </si>
@@ -28,16 +28,16 @@
     <t>incvar IIII</t>
   </si>
   <si>
-    <t>rincvar I</t>
-  </si>
-  <si>
-    <t>rincvar II</t>
-  </si>
-  <si>
-    <t>rincvar III</t>
-  </si>
-  <si>
-    <t>rincvar IIII</t>
+    <t>inciqr I</t>
+  </si>
+  <si>
+    <t>inciqr II</t>
+  </si>
+  <si>
+    <t>inciqr III</t>
+  </si>
+  <si>
+    <t>inciqr IIII</t>
   </si>
   <si>
     <t>parttime=yes</t>
@@ -133,46 +133,25 @@
     <t>0.02</t>
   </si>
   <si>
-    <t>0.06***</t>
-  </si>
-  <si>
-    <t>0.60***</t>
-  </si>
-  <si>
-    <t>48665</t>
-  </si>
-  <si>
-    <t>0.08***</t>
-  </si>
-  <si>
-    <t>-0.00</t>
-  </si>
-  <si>
-    <t>0.01***</t>
-  </si>
-  <si>
-    <t>43083</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.44***</t>
-  </si>
-  <si>
-    <t>0.05***</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>0.07***</t>
-  </si>
-  <si>
-    <t>36549</t>
+    <t>0.03***</t>
+  </si>
+  <si>
+    <t>0.67***</t>
+  </si>
+  <si>
+    <t>57428</t>
+  </si>
+  <si>
+    <t>0.04***</t>
+  </si>
+  <si>
+    <t>50772</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>43094</t>
   </si>
 </sst>
 </file>
@@ -585,10 +564,10 @@
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -606,16 +585,16 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -638,13 +617,13 @@
         <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -662,7 +641,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -688,13 +667,13 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -773,10 +752,10 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -791,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -805,10 +784,10 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -820,10 +799,10 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -834,7 +813,7 @@
         <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -866,13 +845,13 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
         <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -892,16 +871,16 @@
         <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>incvar I</t>
   </si>
@@ -28,16 +28,31 @@
     <t>incvar IIII</t>
   </si>
   <si>
-    <t>inciqr I</t>
-  </si>
-  <si>
-    <t>inciqr II</t>
-  </si>
-  <si>
-    <t>inciqr III</t>
-  </si>
-  <si>
-    <t>inciqr IIII</t>
+    <t>incvar IIIII</t>
+  </si>
+  <si>
+    <t>exp_vol</t>
+  </si>
+  <si>
+    <t>age_gr=30-39</t>
+  </si>
+  <si>
+    <t>age_gr=40-48</t>
+  </si>
+  <si>
+    <t>age_gr=49-57</t>
+  </si>
+  <si>
+    <t>age_gr=&gt;57</t>
+  </si>
+  <si>
+    <t>HHinc_gr=low inc</t>
+  </si>
+  <si>
+    <t>educ_gr=low educ</t>
+  </si>
+  <si>
+    <t>gender=male</t>
   </si>
   <si>
     <t>parttime=yes</t>
@@ -52,106 +67,130 @@
     <t>UEprobInd</t>
   </si>
   <si>
-    <t>HHinc_gr=low inc</t>
-  </si>
-  <si>
-    <t>educ_gr=low educ</t>
-  </si>
-  <si>
-    <t>gender=male</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>-0.08***</t>
+    <t>3.95***</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
+  </si>
+  <si>
+    <t>40529</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>1.81***</t>
+  </si>
+  <si>
+    <t>(0.53)</t>
+  </si>
+  <si>
+    <t>-0.33***</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>-0.50***</t>
+  </si>
+  <si>
+    <t>-0.61***</t>
+  </si>
+  <si>
+    <t>-0.48***</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>2.20***</t>
+  </si>
+  <si>
+    <t>(0.58)</t>
+  </si>
+  <si>
+    <t>-0.34***</t>
+  </si>
+  <si>
+    <t>-0.53***</t>
+  </si>
+  <si>
+    <t>-0.59***</t>
+  </si>
+  <si>
+    <t>-0.49***</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>0.20***</t>
   </si>
   <si>
     <t>(0.02)</t>
   </si>
   <si>
-    <t>1.15***</t>
-  </si>
-  <si>
-    <t>51788</t>
+    <t>-0.11***</t>
+  </si>
+  <si>
+    <t>-0.38***</t>
+  </si>
+  <si>
+    <t>34101</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>3.79***</t>
+  </si>
+  <si>
+    <t>-0.37***</t>
+  </si>
+  <si>
+    <t>-0.64***</t>
+  </si>
+  <si>
+    <t>-0.55***</t>
+  </si>
+  <si>
+    <t>0.16***</t>
+  </si>
+  <si>
+    <t>-0.06***</t>
+  </si>
+  <si>
+    <t>-0.29***</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>0.00***</t>
+  </si>
+  <si>
+    <t>(0.00)</t>
+  </si>
+  <si>
+    <t>0.04***</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>28898</t>
   </si>
   <si>
     <t>0.06</t>
-  </si>
-  <si>
-    <t>-0.07***</t>
-  </si>
-  <si>
-    <t>-0.00***</t>
-  </si>
-  <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t>0.00***</t>
-  </si>
-  <si>
-    <t>45911</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>-0.10***</t>
-  </si>
-  <si>
-    <t>0.15***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>-0.16***</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.05**</t>
-  </si>
-  <si>
-    <t>0.18***</t>
-  </si>
-  <si>
-    <t>-0.14***</t>
-  </si>
-  <si>
-    <t>-0.29***</t>
-  </si>
-  <si>
-    <t>39008</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.03***</t>
-  </si>
-  <si>
-    <t>0.67***</t>
-  </si>
-  <si>
-    <t>57428</t>
-  </si>
-  <si>
-    <t>0.04***</t>
-  </si>
-  <si>
-    <t>50772</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>43094</t>
   </si>
 </sst>
 </file>
@@ -509,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,356 +570,345 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s">
-        <v>38</v>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>incvar I</t>
   </si>
@@ -31,7 +31,7 @@
     <t>incvar IIIII</t>
   </si>
   <si>
-    <t>exp_vol</t>
+    <t>expvol</t>
   </si>
   <si>
     <t>age_gr=30-39</t>
@@ -73,10 +73,10 @@
     <t>R2</t>
   </si>
   <si>
-    <t>3.95***</t>
-  </si>
-  <si>
-    <t>(0.25)</t>
+    <t>6.31***</t>
+  </si>
+  <si>
+    <t>(0.40)</t>
   </si>
   <si>
     <t>40529</t>
@@ -85,10 +85,10 @@
     <t>0.01</t>
   </si>
   <si>
-    <t>1.81***</t>
-  </si>
-  <si>
-    <t>(0.53)</t>
+    <t>2.92***</t>
+  </si>
+  <si>
+    <t>(0.83)</t>
   </si>
   <si>
     <t>-0.33***</t>
@@ -97,7 +97,7 @@
     <t>(0.03)</t>
   </si>
   <si>
-    <t>-0.50***</t>
+    <t>-0.51***</t>
   </si>
   <si>
     <t>-0.61***</t>
@@ -112,10 +112,10 @@
     <t>0.02</t>
   </si>
   <si>
-    <t>2.20***</t>
-  </si>
-  <si>
-    <t>(0.58)</t>
+    <t>3.56***</t>
+  </si>
+  <si>
+    <t>(0.91)</t>
   </si>
   <si>
     <t>-0.34***</t>
@@ -127,9 +127,6 @@
     <t>-0.59***</t>
   </si>
   <si>
-    <t>-0.49***</t>
-  </si>
-  <si>
     <t>(0.05)</t>
   </si>
   <si>
@@ -151,25 +148,25 @@
     <t>0.04</t>
   </si>
   <si>
-    <t>3.79***</t>
-  </si>
-  <si>
-    <t>-0.37***</t>
-  </si>
-  <si>
-    <t>-0.64***</t>
-  </si>
-  <si>
-    <t>-0.55***</t>
-  </si>
-  <si>
-    <t>0.16***</t>
-  </si>
-  <si>
-    <t>-0.06***</t>
-  </si>
-  <si>
-    <t>-0.29***</t>
+    <t>6.15***</t>
+  </si>
+  <si>
+    <t>(0.92)</t>
+  </si>
+  <si>
+    <t>-0.65***</t>
+  </si>
+  <si>
+    <t>-0.58***</t>
+  </si>
+  <si>
+    <t>0.15***</t>
+  </si>
+  <si>
+    <t>-0.08***</t>
+  </si>
+  <si>
+    <t>-0.31***</t>
   </si>
   <si>
     <t>-0.03</t>
@@ -181,16 +178,10 @@
     <t>(0.00)</t>
   </si>
   <si>
-    <t>0.04***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
     <t>28898</t>
   </si>
   <si>
-    <t>0.06</t>
+    <t>0.05</t>
   </si>
 </sst>
 </file>
@@ -588,7 +579,7 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -606,7 +597,7 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -623,7 +614,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -655,7 +646,7 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -687,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -713,13 +704,13 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -728,13 +719,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -742,25 +733,25 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -768,25 +759,25 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -794,25 +785,25 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -820,13 +811,13 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -834,13 +825,13 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -848,13 +839,13 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -862,13 +853,13 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -882,13 +873,13 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -902,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>incvar I</t>
   </si>
@@ -55,6 +55,9 @@
     <t>gender=male</t>
   </si>
   <si>
+    <t>nlit_gr=low nlit</t>
+  </si>
+  <si>
     <t>parttime=yes</t>
   </si>
   <si>
@@ -73,115 +76,118 @@
     <t>R2</t>
   </si>
   <si>
-    <t>6.31***</t>
-  </si>
-  <si>
-    <t>(0.40)</t>
-  </si>
-  <si>
-    <t>40529</t>
+    <t>1.19***</t>
+  </si>
+  <si>
+    <t>(0.24)</t>
+  </si>
+  <si>
+    <t>20602</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>1.46***</t>
+  </si>
+  <si>
+    <t>(0.49)</t>
+  </si>
+  <si>
+    <t>-0.12***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>-0.15***</t>
+  </si>
+  <si>
+    <t>-0.16***</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>1.53***</t>
+  </si>
+  <si>
+    <t>(0.54)</t>
+  </si>
+  <si>
+    <t>-0.13***</t>
+  </si>
+  <si>
+    <t>-0.17***</t>
+  </si>
+  <si>
+    <t>-0.09**</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>0.17***</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>2.92***</t>
-  </si>
-  <si>
-    <t>(0.83)</t>
-  </si>
-  <si>
-    <t>-0.33***</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t>-0.51***</t>
-  </si>
-  <si>
-    <t>-0.61***</t>
-  </si>
-  <si>
-    <t>-0.48***</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
+    <t>-0.09***</t>
+  </si>
+  <si>
+    <t>0.06***</t>
+  </si>
+  <si>
+    <t>17456</t>
+  </si>
+  <si>
+    <t>2.47***</t>
+  </si>
+  <si>
+    <t>(0.60)</t>
+  </si>
+  <si>
+    <t>-0.20***</t>
+  </si>
+  <si>
+    <t>-0.21***</t>
+  </si>
+  <si>
+    <t>0.16***</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.06***</t>
+  </si>
+  <si>
+    <t>0.07***</t>
+  </si>
+  <si>
+    <t>-0.00***</t>
+  </si>
+  <si>
+    <t>(0.00)</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>0.02***</t>
+  </si>
+  <si>
+    <t>13880</t>
   </si>
   <si>
     <t>0.02</t>
-  </si>
-  <si>
-    <t>3.56***</t>
-  </si>
-  <si>
-    <t>(0.91)</t>
-  </si>
-  <si>
-    <t>-0.34***</t>
-  </si>
-  <si>
-    <t>-0.53***</t>
-  </si>
-  <si>
-    <t>-0.59***</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t>0.20***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>-0.11***</t>
-  </si>
-  <si>
-    <t>-0.38***</t>
-  </si>
-  <si>
-    <t>34101</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>6.15***</t>
-  </si>
-  <si>
-    <t>(0.92)</t>
-  </si>
-  <si>
-    <t>-0.65***</t>
-  </si>
-  <si>
-    <t>-0.58***</t>
-  </si>
-  <si>
-    <t>0.15***</t>
-  </si>
-  <si>
-    <t>-0.08***</t>
-  </si>
-  <si>
-    <t>-0.31***</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.00***</t>
-  </si>
-  <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t>28898</t>
-  </si>
-  <si>
-    <t>0.05</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,16 +573,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -585,16 +591,16 @@
     <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -605,31 +611,31 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -637,31 +643,31 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -669,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -678,22 +684,22 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -701,31 +707,31 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -733,10 +739,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
@@ -745,13 +751,13 @@
     <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -771,13 +777,13 @@
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -797,27 +803,39 @@
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1"/>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -825,13 +843,13 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -853,53 +871,67 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="1"/>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>43</v>
       </c>
-      <c r="F27" t="s">
-        <v>55</v>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>incvar I</t>
   </si>
@@ -76,118 +76,94 @@
     <t>R2</t>
   </si>
   <si>
-    <t>1.19***</t>
-  </si>
-  <si>
-    <t>(0.24)</t>
-  </si>
-  <si>
-    <t>20602</t>
+    <t>0.73***</t>
+  </si>
+  <si>
+    <t>(0.07)</t>
+  </si>
+  <si>
+    <t>40529</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>1.46***</t>
-  </si>
-  <si>
-    <t>(0.49)</t>
-  </si>
-  <si>
-    <t>-0.12***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>-0.15***</t>
-  </si>
-  <si>
-    <t>-0.16***</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t>1.53***</t>
-  </si>
-  <si>
-    <t>(0.54)</t>
+    <t>0.41***</t>
+  </si>
+  <si>
+    <t>(0.16)</t>
+  </si>
+  <si>
+    <t>-0.07***</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>-0.10***</t>
   </si>
   <si>
     <t>-0.13***</t>
   </si>
   <si>
-    <t>-0.17***</t>
-  </si>
-  <si>
-    <t>-0.09**</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t>0.17***</t>
+    <t>-0.08***</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
+    <t>0.40**</t>
+  </si>
+  <si>
+    <t>(0.17)</t>
+  </si>
+  <si>
     <t>-0.09***</t>
   </si>
   <si>
+    <t>0.07***</t>
+  </si>
+  <si>
+    <t>(0.00)</t>
+  </si>
+  <si>
+    <t>-0.01*</t>
+  </si>
+  <si>
+    <t>0.03***</t>
+  </si>
+  <si>
+    <t>34101</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.87***</t>
+  </si>
+  <si>
+    <t>-0.11***</t>
+  </si>
+  <si>
     <t>0.06***</t>
   </si>
   <si>
-    <t>17456</t>
-  </si>
-  <si>
-    <t>2.47***</t>
-  </si>
-  <si>
-    <t>(0.60)</t>
-  </si>
-  <si>
-    <t>-0.20***</t>
-  </si>
-  <si>
-    <t>-0.21***</t>
-  </si>
-  <si>
-    <t>0.16***</t>
+    <t>-0.06***</t>
+  </si>
+  <si>
+    <t>0.00***</t>
+  </si>
+  <si>
+    <t>0.00**</t>
+  </si>
+  <si>
+    <t>0.01***</t>
+  </si>
+  <si>
+    <t>28898</t>
   </si>
   <si>
     <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.06***</t>
-  </si>
-  <si>
-    <t>0.07***</t>
-  </si>
-  <si>
-    <t>-0.00***</t>
-  </si>
-  <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>0.02***</t>
-  </si>
-  <si>
-    <t>13880</t>
-  </si>
-  <si>
-    <t>0.02</t>
   </si>
 </sst>
 </file>
@@ -579,13 +555,13 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -597,13 +573,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -614,13 +590,13 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -635,7 +611,7 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -652,7 +628,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -661,13 +637,13 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -678,28 +654,28 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -707,31 +683,31 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -739,22 +715,22 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -765,13 +741,13 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -791,25 +767,25 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -817,25 +793,25 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -843,13 +819,13 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -857,13 +833,13 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -871,13 +847,13 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -885,13 +861,13 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -905,13 +881,13 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -922,7 +898,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
@@ -931,7 +907,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>incvar I</t>
   </si>
@@ -31,25 +31,19 @@
     <t>incvar IIIII</t>
   </si>
   <si>
-    <t>expvol</t>
-  </si>
-  <si>
-    <t>age_gr=30-39</t>
-  </si>
-  <si>
-    <t>age_gr=40-48</t>
-  </si>
-  <si>
-    <t>age_gr=49-57</t>
-  </si>
-  <si>
-    <t>age_gr=&gt;57</t>
-  </si>
-  <si>
-    <t>HHinc_gr=low inc</t>
-  </si>
-  <si>
-    <t>educ_gr=low educ</t>
+    <t>incvar IIIIII</t>
+  </si>
+  <si>
+    <t>IdExpVol</t>
+  </si>
+  <si>
+    <t>AgExpVol</t>
+  </si>
+  <si>
+    <t>AgExpUE</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
   <si>
     <t>gender=male</t>
@@ -70,100 +64,178 @@
     <t>UEprobInd</t>
   </si>
   <si>
+    <t>HHinc_gr=low income</t>
+  </si>
+  <si>
+    <t>educ_gr=high school</t>
+  </si>
+  <si>
+    <t>educ_gr=hs dropout</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>0.73***</t>
-  </si>
-  <si>
-    <t>(0.07)</t>
-  </si>
-  <si>
-    <t>40529</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.41***</t>
-  </si>
-  <si>
-    <t>(0.16)</t>
-  </si>
-  <si>
-    <t>-0.07***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
+    <t>4.58***</t>
+  </si>
+  <si>
+    <t>(0.33)</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>0.14***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>41422</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>2.23***</t>
+  </si>
+  <si>
+    <t>(0.36)</t>
+  </si>
+  <si>
+    <t>0.28***</t>
+  </si>
+  <si>
+    <t>0.08***</t>
+  </si>
+  <si>
+    <t>-0.02***</t>
+  </si>
+  <si>
+    <t>(0.00)</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>2.69***</t>
+  </si>
+  <si>
+    <t>(0.39)</t>
+  </si>
+  <si>
+    <t>0.34***</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>0.05**</t>
+  </si>
+  <si>
+    <t>-0.36***</t>
+  </si>
+  <si>
+    <t>0.09***</t>
+  </si>
+  <si>
+    <t>34833</t>
+  </si>
+  <si>
+    <t>2.75***</t>
+  </si>
+  <si>
+    <t>0.32***</t>
+  </si>
+  <si>
+    <t>0.05*</t>
+  </si>
+  <si>
+    <t>-0.35***</t>
   </si>
   <si>
     <t>-0.10***</t>
   </si>
   <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>(0.11)</t>
+  </si>
+  <si>
+    <t>2.95***</t>
+  </si>
+  <si>
+    <t>(0.38)</t>
+  </si>
+  <si>
+    <t>0.18***</t>
+  </si>
+  <si>
+    <t>0.04*</t>
+  </si>
+  <si>
+    <t>-0.32***</t>
+  </si>
+  <si>
+    <t>0.10***</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>1.25***</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>0.16***</t>
+  </si>
+  <si>
     <t>-0.13***</t>
   </si>
   <si>
-    <t>-0.08***</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.40**</t>
-  </si>
-  <si>
-    <t>(0.17)</t>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>33480</t>
+  </si>
+  <si>
+    <t>2.94***</t>
+  </si>
+  <si>
+    <t>0.20***</t>
+  </si>
+  <si>
+    <t>-0.30***</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.00***</t>
+  </si>
+  <si>
+    <t>0.02***</t>
   </si>
   <si>
     <t>-0.09***</t>
   </si>
   <si>
-    <t>0.07***</t>
-  </si>
-  <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t>-0.01*</t>
-  </si>
-  <si>
-    <t>0.03***</t>
-  </si>
-  <si>
-    <t>34101</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.87***</t>
-  </si>
-  <si>
-    <t>-0.11***</t>
-  </si>
-  <si>
-    <t>0.06***</t>
-  </si>
-  <si>
-    <t>-0.06***</t>
-  </si>
-  <si>
-    <t>0.00***</t>
-  </si>
-  <si>
-    <t>0.00**</t>
-  </si>
-  <si>
-    <t>0.01***</t>
-  </si>
-  <si>
-    <t>28898</t>
-  </si>
-  <si>
-    <t>0.03</t>
+    <t>0.29***</t>
+  </si>
+  <si>
+    <t>29687</t>
+  </si>
+  <si>
+    <t>0.06</t>
   </si>
 </sst>
 </file>
@@ -521,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,371 +615,428 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>incvar I</t>
   </si>
@@ -79,112 +79,115 @@
     <t>R2</t>
   </si>
   <si>
-    <t>4.58***</t>
-  </si>
-  <si>
-    <t>(0.33)</t>
+    <t>0.42***</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>-0.20***</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>0.30***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>41422</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>(0.14)</t>
+  </si>
+  <si>
+    <t>0.21***</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>0.13***</t>
+  </si>
+  <si>
+    <t>-0.02***</t>
+  </si>
+  <si>
+    <t>(0.00)</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>0.24***</t>
+  </si>
+  <si>
+    <t>0.10***</t>
+  </si>
+  <si>
+    <t>-0.36***</t>
+  </si>
+  <si>
+    <t>0.08***</t>
+  </si>
+  <si>
+    <t>34833</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.64**</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
+  </si>
+  <si>
+    <t>0.23***</t>
+  </si>
+  <si>
+    <t>0.09***</t>
+  </si>
+  <si>
+    <t>-0.35***</t>
+  </si>
+  <si>
+    <t>-0.11***</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
   </si>
   <si>
     <t>0.04</t>
   </si>
   <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t>0.14***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>41422</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>2.23***</t>
-  </si>
-  <si>
-    <t>(0.36)</t>
-  </si>
-  <si>
-    <t>0.28***</t>
-  </si>
-  <si>
-    <t>0.08***</t>
-  </si>
-  <si>
-    <t>-0.02***</t>
-  </si>
-  <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>2.69***</t>
-  </si>
-  <si>
-    <t>(0.39)</t>
-  </si>
-  <si>
-    <t>0.34***</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t>0.05**</t>
-  </si>
-  <si>
-    <t>-0.36***</t>
-  </si>
-  <si>
-    <t>0.09***</t>
-  </si>
-  <si>
-    <t>34833</t>
-  </si>
-  <si>
-    <t>2.75***</t>
-  </si>
-  <si>
-    <t>0.32***</t>
-  </si>
-  <si>
-    <t>0.05*</t>
-  </si>
-  <si>
-    <t>-0.35***</t>
-  </si>
-  <si>
-    <t>-0.10***</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>(0.11)</t>
-  </si>
-  <si>
-    <t>2.95***</t>
-  </si>
-  <si>
-    <t>(0.38)</t>
-  </si>
-  <si>
-    <t>0.18***</t>
-  </si>
-  <si>
-    <t>0.04*</t>
-  </si>
-  <si>
-    <t>-0.32***</t>
-  </si>
-  <si>
-    <t>0.10***</t>
+    <t>0.78***</t>
+  </si>
+  <si>
+    <t>(0.28)</t>
+  </si>
+  <si>
+    <t>0.09**</t>
+  </si>
+  <si>
+    <t>-0.33***</t>
   </si>
   <si>
     <t>-0.01</t>
@@ -193,43 +196,49 @@
     <t>1.25***</t>
   </si>
   <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
     <t>0.16***</t>
   </si>
   <si>
+    <t>-0.17***</t>
+  </si>
+  <si>
+    <t>-0.31*</t>
+  </si>
+  <si>
+    <t>33480</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.85***</t>
+  </si>
+  <si>
+    <t>0.11**</t>
+  </si>
+  <si>
+    <t>0.11***</t>
+  </si>
+  <si>
+    <t>-0.30***</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.00***</t>
+  </si>
+  <si>
+    <t>0.01***</t>
+  </si>
+  <si>
+    <t>0.17***</t>
+  </si>
+  <si>
     <t>-0.13***</t>
   </si>
   <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>33480</t>
-  </si>
-  <si>
-    <t>2.94***</t>
-  </si>
-  <si>
-    <t>0.20***</t>
-  </si>
-  <si>
-    <t>-0.30***</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.00***</t>
-  </si>
-  <si>
-    <t>0.02***</t>
-  </si>
-  <si>
-    <t>-0.09***</t>
-  </si>
-  <si>
-    <t>0.29***</t>
+    <t>-0.17</t>
   </si>
   <si>
     <t>29687</t>
@@ -630,16 +639,16 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -651,16 +660,16 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -674,16 +683,16 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -692,19 +701,19 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -715,19 +724,19 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -756,37 +765,37 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -797,13 +806,13 @@
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -832,7 +841,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -858,10 +867,10 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -878,19 +887,19 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -898,13 +907,13 @@
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -912,13 +921,13 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -929,7 +938,7 @@
         <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -946,25 +955,25 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
         <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,25 +981,25 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1013,7 +1022,7 @@
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1024,19 +1033,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
